--- a/biology/Médecine/Observatoire_de_la_qualité_de_l'air_intérieur/Observatoire_de_la_qualité_de_l'air_intérieur.xlsx
+++ b/biology/Médecine/Observatoire_de_la_qualité_de_l'air_intérieur/Observatoire_de_la_qualité_de_l'air_intérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Observatoire_de_la_qualit%C3%A9_de_l%27air_int%C3%A9rieur</t>
+          <t>Observatoire_de_la_qualité_de_l'air_intérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Observatoire de la qualité de l'air intérieur (OQAI) a été créé en juillet 2001 en France à l’initiative du ministère du logement pour pallier la  méconnaissance des expositions de la population à la pollution de l’air intérieur des bâtiments et des facteurs de risque associés. Il n’a pas de personnalité morale mais consiste en un instrument indépendant de connaissance scientifique. Il est missionné dans le cadre d’une convention, conclue pour une durée de quatre ans renouvelable, entre les ministères chargés du Logement, de l’Écologie et de la Santé, l’agence de l'environnement et de la maîtrise de l'énergie (ADEME), le centre scientifique et technique du bâtiment (CSTB) et l’agence nationale  de sécurité sanitaire de l'alimentation, de l'environnement et du travail.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Observatoire_de_la_qualit%C3%A9_de_l%27air_int%C3%A9rieur</t>
+          <t>Observatoire_de_la_qualité_de_l'air_intérieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Enjeux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Observatoire de la Qualité de l’Air Intérieur a pour objet de mettre en place un dispositif de recherche pour collecter des données sur les polluants présents dans les atmosphères intérieures des différents lieux de vie. L’OQAI contribue ainsi à une meilleure connaissance des substances, agents et situations affectant la qualité de l’air intérieur dans le parc immobilier existant et des niveaux d’exposition des populations, afin d’apporter les informations nécessaires pour une politique d’évaluation et de gestion des risques.
 L’Observatoire apporte des éclairages sur les orientations à prendre en matière de réglementation sur les matériaux, les équipements, la maintenance et les pratiques constructives ainsi que sur l’étiquetage des produits de consommation courante.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Observatoire_de_la_qualit%C3%A9_de_l%27air_int%C3%A9rieur</t>
+          <t>Observatoire_de_la_qualité_de_l'air_intérieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Les missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’Observatoire de la qualité de l’air intérieur, outil unique en Europe, a pour objet :
 D’identifier les substances, agents et situations qui, en affectant la qualité de l’air intérieur des bâtiments, présentent un risque pour la santé des personnes, et de préciser les différentes origines des polluants de la qualité de l’air intérieur ainsi que les contributions des différentes sources ;
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Observatoire_de_la_qualit%C3%A9_de_l%27air_int%C3%A9rieur</t>
+          <t>Observatoire_de_la_qualité_de_l'air_intérieur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,11 +598,13 @@
           <t>Les actions de l'OQAI</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces objectifs sont actuellement déclinés au travers de six programme d’actions : logements, lieux de vie fréquentés par les enfants, bureaux, nouveaux bâtiments performants en énergie, outils d’aide à la décision, et veille documentaire, information, communication et formation.
 Logements : Conduite en 2003-2005, la campagne nationale de mesure « Logements », menée sur un échantillon représentatif du parc des résidences principales de France métropolitaine continentale, a permis d’obtenir une photographie unique de la pollution chimique, physique et biologique des logements français. Ces données sont désormais largement utilisées par exemple comme base de comparaison des niveaux mesurés dans des espaces clos, pour évaluer les expositions de la population et les risques sanitaires associés, pour la gestion des risques, la fixation de valeurs de gestion pour la qualité de l’air intérieur. Les travaux se poursuivent avec l’analyse des concentrations en composés organiques semi-volatils présents sur les particules en suspension dans l’air et les poussières déposées au sol.
-Ainsi, selon les résultats publiés en 2015, la moitié des logements français seraient pollués par des composés organique semi-volatil (COSV), issus des Détergents et autres produits d'entretien, les peintures ou les revêtements de sol ou muraux, câbles électriques, rideaux de douche ou encore vieux joints d'étanchéité, ou encore du tabac ou de la combustion d'encens selon les résultats d'une étude de l'Observatoire de la qualité de l'air intérieur (OQAI[1])[2].
+Ainsi, selon les résultats publiés en 2015, la moitié des logements français seraient pollués par des composés organique semi-volatil (COSV), issus des Détergents et autres produits d'entretien, les peintures ou les revêtements de sol ou muraux, câbles électriques, rideaux de douche ou encore vieux joints d'étanchéité, ou encore du tabac ou de la combustion d'encens selon les résultats d'une étude de l'Observatoire de la qualité de l'air intérieur (OQAI).
 Lieux de vie fréquentés par les enfants :  Ce programme a permis de collecter des données sur le temps passé par les enfants dans les lieux de garde collectifs et dans les lieux de loisirs. Des études spécifiques ont été menées dans les écoles et les crèches collectives sur les comportements et les freins vis-à-vis de l’aération, sur les émissions des produits d’entretien et de ceux liés aux activités scolaires, ainsi que sur la contamination bactérienne.
 Aujourd’hui, l’OQAI démarre une campagne nationale de mesure dans les écoles maternelles et élémentaires. Elle vise à approfondir la connaissance des niveaux d’exposition des enfants aux polluants de l’air dans ces locaux : particules, composés organiques volatils et semi-volatils (pesticides, phtalates, retardateurs de flamme), allergènes, contamination fongique et bactérienne, métaux.
 S’agissant des lieux de loisirs, une campagne de mesure a été réalisée dans 18 piscines de l’agglomération rennaise et une étude documentaire a porté sur les 112 patinoires françaises.
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Observatoire_de_la_qualit%C3%A9_de_l%27air_int%C3%A9rieur</t>
+          <t>Observatoire_de_la_qualité_de_l'air_intérieur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,20 +641,11 @@
           <t>Gouvernance de l'Observatoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Observatoire est doté d'un conseil de surveillance et d’orientation, d'un conseil scientifique et d'un comité consultatif.
-Conseil de surveillance et d’orientation
-Le conseil de surveillance et d’orientation est chargé de la coordination des actions de l’Observatoire. Son président est désigné par le ministre chargé de la construction, après avis des ministres chargés de la santé et de l’écologie. 
-Le conseil de surveillance et d’orientation veille à l’éthique et à la déontologie des actions de l’Observatoire, à son indépendance vis-à-vis des groupes de pression et à la transparence de ses actions. Après consultation du conseil scientifique et du comité consultatif, il définit les orientations générales des actions de l’Observatoire dans le cadre des moyens, notamment budgétaires, mis à sa disposition. Il adopte, en particulier, après consultation du conseil scientifique, le programme de travail proposé par le CSTB. 
-Sa présidence est assurée par Andrée Buchmann.
-Conseil scientifique
-Le conseil scientifique est chargé de s’assurer de la qualité et de la pertinence scientifique des travaux de l’Observatoire. Ses membres, et en particulier son président, sont désignés par le ministre chargé de la construction, après avis des ministres chargés de la santé et de l’écologie.
-Le conseil scientifique définit les orientations scientifiques de l’Observatoire et émet un avis sur le contenu des actions entreprises. Il se prononce sur les besoins en études et recherches connexes. Il contribue à l’interprétation scientifique des données collectées et à l’évaluation des travaux de recherche mis en œuvre dans le cadre de l’Observatoire. Il formule son avis sur le contenu du rapport annuel d’activités.
-Sa présidence a été assurée successivement par le Pr Bernard Festy (ancien directeur du Laboratoire d’hygiène de la ville de Paris, LHVP), M. Yvon Le Moullec (ancien directeur adjoint du LHVP). Francis ALLARD, professeur des universités à l’université de La Rochelle, préside actuellement ce conseil.
-Comité consultatif
-Le comité consultatif de l’Observatoire est chargé de recueillir les avis et les suggestions des organismes, associations et institutions concernés par les travaux de l’Observatoire et de contribuer à identifier des questions ou situations spécifiques méritant d'être étudiées. 
-Son président est le président du conseil de surveillance et d’orientation.
 </t>
         </is>
       </c>
@@ -647,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Observatoire_de_la_qualit%C3%A9_de_l%27air_int%C3%A9rieur</t>
+          <t>Observatoire_de_la_qualité_de_l'air_intérieur</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,10 +671,128 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Gouvernance de l'Observatoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Conseil de surveillance et d’orientation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le conseil de surveillance et d’orientation est chargé de la coordination des actions de l’Observatoire. Son président est désigné par le ministre chargé de la construction, après avis des ministres chargés de la santé et de l’écologie. 
+Le conseil de surveillance et d’orientation veille à l’éthique et à la déontologie des actions de l’Observatoire, à son indépendance vis-à-vis des groupes de pression et à la transparence de ses actions. Après consultation du conseil scientifique et du comité consultatif, il définit les orientations générales des actions de l’Observatoire dans le cadre des moyens, notamment budgétaires, mis à sa disposition. Il adopte, en particulier, après consultation du conseil scientifique, le programme de travail proposé par le CSTB. 
+Sa présidence est assurée par Andrée Buchmann.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Observatoire_de_la_qualité_de_l'air_intérieur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Observatoire_de_la_qualit%C3%A9_de_l%27air_int%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Gouvernance de l'Observatoire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Conseil scientifique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le conseil scientifique est chargé de s’assurer de la qualité et de la pertinence scientifique des travaux de l’Observatoire. Ses membres, et en particulier son président, sont désignés par le ministre chargé de la construction, après avis des ministres chargés de la santé et de l’écologie.
+Le conseil scientifique définit les orientations scientifiques de l’Observatoire et émet un avis sur le contenu des actions entreprises. Il se prononce sur les besoins en études et recherches connexes. Il contribue à l’interprétation scientifique des données collectées et à l’évaluation des travaux de recherche mis en œuvre dans le cadre de l’Observatoire. Il formule son avis sur le contenu du rapport annuel d’activités.
+Sa présidence a été assurée successivement par le Pr Bernard Festy (ancien directeur du Laboratoire d’hygiène de la ville de Paris, LHVP), M. Yvon Le Moullec (ancien directeur adjoint du LHVP). Francis ALLARD, professeur des universités à l’université de La Rochelle, préside actuellement ce conseil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Observatoire_de_la_qualité_de_l'air_intérieur</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Observatoire_de_la_qualit%C3%A9_de_l%27air_int%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Gouvernance de l'Observatoire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Comité consultatif</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le comité consultatif de l’Observatoire est chargé de recueillir les avis et les suggestions des organismes, associations et institutions concernés par les travaux de l’Observatoire et de contribuer à identifier des questions ou situations spécifiques méritant d'être étudiées. 
+Son président est le président du conseil de surveillance et d’orientation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Observatoire_de_la_qualité_de_l'air_intérieur</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Observatoire_de_la_qualit%C3%A9_de_l%27air_int%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Modalités de fonctionnement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CSTB est l’opérateur désigné pour la mise en œuvre de l’Observatoire :
 il anime et coordonne le réseau d’acteurs scientifiques et techniques nécessaire à l’accomplissement des missions de l’Observatoire ;
@@ -677,31 +804,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Observatoire_de_la_qualit%C3%A9_de_l%27air_int%C3%A9rieur</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Observatoire_de_la_qualit%C3%A9_de_l%27air_int%C3%A9rieur</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Observatoire_de_la_qualité_de_l'air_intérieur</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Observatoire_de_la_qualit%C3%A9_de_l%27air_int%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Modalités de financement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Le budget de l’OQAI provient uniquement de fonds publics :
 le ministère chargé de la construction, le ministère chargé de la santé, le ministère chargé de l’écologie, l’ADEME et le CSTB apportent leur financement sur des actions identifiées à l’intérieur du programme ;
@@ -709,31 +838,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Observatoire_de_la_qualit%C3%A9_de_l%27air_int%C3%A9rieur</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Observatoire_de_la_qualit%C3%A9_de_l%27air_int%C3%A9rieur</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Observatoire_de_la_qualité_de_l'air_intérieur</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Observatoire_de_la_qualit%C3%A9_de_l%27air_int%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Les partenariats étrangers</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>À l’échelle européenne, l’expérience de l’Observatoire de la Qualité de l’Air Intérieur est unique car aucun autre pays ne s’est doté d’un tel outil pérenne.
 L’OQAI est partenaire de l’Organisation mondiale de la santé (OMS) pour les travaux d’élaboration des valeurs guides sur l’air intérieur et de proposition d’indicateurs sanitaires relatifs à la pollution intérieure dans les écoles au sein du système européen EHNIS (Environment and Health Information System). L’OQAI participe aux réflexions en cours dans le cadre du projet européen INDOOR-MONIT, piloté par le Centre de recherche des communautés européennes à Ispra (Joint Research Centre) pour l’élaboration de protocoles harmonisés en vue de la caractérisation de l’air intérieur dans différents contextes (par exemple, plaintes, vérification du respect d’une valeur guide, évaluation d’une mesure de remédiation).
